--- a/stage_1/Basic_Error_Handling_Named_Ranges/Error_handling.xlsx
+++ b/stage_1/Basic_Error_Handling_Named_Ranges/Error_handling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Basic_Error_Handling_Named_Ranges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DB0FC1-C8D3-461C-91DA-A1005B8F5F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FEC532-9CDD-4BF9-9425-E4E7BC93D0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D65FF853-2800-49D2-ADA6-489BE9547E09}"/>
   </bookViews>
@@ -774,7 +774,7 @@
   <dimension ref="B1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:F14"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -823,9 +823,9 @@
       <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" t="e" cm="1">
-        <f t="array" aca="1" ref="I3" ca="1">SUMX(C14:F14)</f>
-        <v>#NAME?</v>
+      <c r="I3">
+        <f>SUM(C14:F14)</f>
+        <v>196358</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">

--- a/stage_1/Basic_Error_Handling_Named_Ranges/Error_handling.xlsx
+++ b/stage_1/Basic_Error_Handling_Named_Ranges/Error_handling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Basic_Error_Handling_Named_Ranges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FEC532-9CDD-4BF9-9425-E4E7BC93D0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F711BF-1BEA-4329-9F5C-C311A2016F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D65FF853-2800-49D2-ADA6-489BE9547E09}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>Jan</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Total Dec</t>
+  </si>
+  <si>
+    <t>Total Nov</t>
   </si>
 </sst>
 </file>
@@ -774,7 +777,7 @@
   <dimension ref="B1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -845,11 +848,11 @@
         <v>3740</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="3" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+        <v>15</v>
+      </c>
+      <c r="I4" s="3">
+        <f>SUM(C13:F13)</f>
+        <v>17078</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">

--- a/stage_1/Basic_Error_Handling_Named_Ranges/Error_handling.xlsx
+++ b/stage_1/Basic_Error_Handling_Named_Ranges/Error_handling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Basic_Error_Handling_Named_Ranges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F711BF-1BEA-4329-9F5C-C311A2016F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56FEDDC-F9E3-4BFA-9AE5-E75BC035C2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D65FF853-2800-49D2-ADA6-489BE9547E09}"/>
   </bookViews>
@@ -777,7 +777,7 @@
   <dimension ref="B1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -874,9 +874,9 @@
       <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="I5" t="e">
-        <f>1/0</f>
-        <v>#DIV/0!</v>
+      <c r="I5">
+        <f>SUM(C6:F8)</f>
+        <v>54215</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">

--- a/stage_1/Basic_Error_Handling_Named_Ranges/Error_handling.xlsx
+++ b/stage_1/Basic_Error_Handling_Named_Ranges/Error_handling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Basic_Error_Handling_Named_Ranges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56FEDDC-F9E3-4BFA-9AE5-E75BC035C2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FDE29D-32CE-4ABC-9602-86D29672BB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D65FF853-2800-49D2-ADA6-489BE9547E09}"/>
   </bookViews>
@@ -777,7 +777,7 @@
   <dimension ref="B1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/stage_1/Basic_Error_Handling_Named_Ranges/Error_handling.xlsx
+++ b/stage_1/Basic_Error_Handling_Named_Ranges/Error_handling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Basic_Error_Handling_Named_Ranges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FDE29D-32CE-4ABC-9602-86D29672BB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECBF38C-82DB-433B-A994-E4E8E848A9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D65FF853-2800-49D2-ADA6-489BE9547E09}"/>
   </bookViews>
